--- a/prado/Jappu/prado_mar-23.xlsx
+++ b/prado/Jappu/prado_mar-23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\YandexDisk\GitHub\fxstat\prado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\YandexDisk\GitHub\fxstat\prado\Jappu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F9E44A-9093-41C0-B385-50E4C07A1795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B958D26-7CEA-4BF5-907B-0ED67BC9E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{5BBA6530-76DB-4434-ADA9-D53F8A3B75E5}"/>
   </bookViews>
@@ -3186,8 +3186,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3216,9 +3225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3536,12 +3546,19 @@
   <dimension ref="A1:R206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="18" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="21.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="18.7265625" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="14.36328125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -10851,7 +10868,7 @@
       <c r="A177" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>910</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -10886,7 +10903,7 @@
       <c r="A178" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>910</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -10921,7 +10938,7 @@
       <c r="A179" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>919</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -10965,7 +10982,7 @@
       <c r="A180" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>923</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -11009,7 +11026,7 @@
       <c r="A181" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>923</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -11053,7 +11070,7 @@
       <c r="A182" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -11097,7 +11114,7 @@
       <c r="A183" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>936</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -11141,7 +11158,7 @@
       <c r="A184" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>941</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -11185,7 +11202,7 @@
       <c r="A185" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>945</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -11229,7 +11246,7 @@
       <c r="A186" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>951</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -11273,7 +11290,7 @@
       <c r="A187" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>956</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -11317,7 +11334,7 @@
       <c r="A188" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>962</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -11361,7 +11378,7 @@
       <c r="A189" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>967</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -11405,7 +11422,7 @@
       <c r="A190" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>972</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -11449,7 +11466,7 @@
       <c r="A191" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>972</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -11493,7 +11510,7 @@
       <c r="A192" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>979</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -11537,7 +11554,7 @@
       <c r="A193" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>984</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -11572,7 +11589,7 @@
       <c r="A194" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="2" t="s">
         <v>984</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -11607,7 +11624,7 @@
       <c r="A195" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>990</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -11651,7 +11668,7 @@
       <c r="A196" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>995</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -11695,7 +11712,7 @@
       <c r="A197" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>1000</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -11739,7 +11756,7 @@
       <c r="A198" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>1000</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -11783,7 +11800,7 @@
       <c r="A199" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="2" t="s">
         <v>1012</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -11827,7 +11844,7 @@
       <c r="A200" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -11871,7 +11888,7 @@
       <c r="A201" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -11915,7 +11932,7 @@
       <c r="A202" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -11950,7 +11967,7 @@
       <c r="A203" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -11994,7 +12011,7 @@
       <c r="A204" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>1037</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -12029,7 +12046,7 @@
       <c r="A205" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>1039</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -12073,7 +12090,7 @@
       <c r="A206" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>1044</v>
       </c>
       <c r="C206" s="1" t="s">
